--- a/analysis/pre_gemini_data/participant260/Sheet1.xlsx
+++ b/analysis/pre_gemini_data/participant260/Sheet1.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AM9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,197 +422,193 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>arg5</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>arg6</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>assign</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>assign2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>condbody2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>condstate</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>condstate2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>condstate3</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>condstate4</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>inex</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>loopstate</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>methdocall2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>methdodec</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>methodcall3</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>methodcall4</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>methodcall5</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>methodcall6</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>methodcall7</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>var10</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
@@ -704,13 +688,13 @@
         <v>41</v>
       </c>
       <c r="J3" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K3" t="n">
         <v>65</v>
       </c>
       <c r="L3" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M3" t="n">
         <v>38</v>
@@ -719,7 +703,7 @@
         <v>42</v>
       </c>
       <c r="O3" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -731,7 +715,7 @@
         <v>36</v>
       </c>
       <c r="S3" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T3" t="n">
         <v>11</v>
@@ -749,7 +733,7 @@
         <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="n">
         <v>19</v>
@@ -761,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD3" t="n">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -821,13 +805,13 @@
         <v>67</v>
       </c>
       <c r="J4" t="n">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="K4" t="n">
         <v>149</v>
       </c>
       <c r="L4" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M4" t="n">
         <v>61</v>
@@ -836,7 +820,7 @@
         <v>72</v>
       </c>
       <c r="O4" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -848,7 +832,7 @@
         <v>55</v>
       </c>
       <c r="S4" t="n">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="T4" t="n">
         <v>24</v>
@@ -866,7 +850,7 @@
         <v>24</v>
       </c>
       <c r="Y4" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Z4" t="n">
         <v>24</v>
@@ -878,10 +862,10 @@
         <v>1</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD4" t="n">
-        <v>401</v>
+        <v>313</v>
       </c>
       <c r="AE4" t="n">
         <v>1</v>
@@ -938,13 +922,13 @@
         <v>20840.75</v>
       </c>
       <c r="J5" t="n">
-        <v>123892.44</v>
+        <v>119021.4</v>
       </c>
       <c r="K5" t="n">
         <v>43014.22</v>
       </c>
       <c r="L5" t="n">
-        <v>27419.13</v>
+        <v>26384.65</v>
       </c>
       <c r="M5" t="n">
         <v>18587.41</v>
@@ -953,7 +937,7 @@
         <v>21715.87</v>
       </c>
       <c r="O5" t="n">
-        <v>23801.43</v>
+        <v>23451.07</v>
       </c>
       <c r="P5" t="n">
         <v>1735.48</v>
@@ -965,7 +949,7 @@
         <v>18170.98</v>
       </c>
       <c r="S5" t="n">
-        <v>97430.08</v>
+        <v>96145.37</v>
       </c>
       <c r="T5" t="n">
         <v>5556.65</v>
@@ -983,7 +967,7 @@
         <v>8284.35</v>
       </c>
       <c r="Y5" t="n">
-        <v>15240.49</v>
+        <v>14556.38</v>
       </c>
       <c r="Z5" t="n">
         <v>8009.7</v>
@@ -995,10 +979,10 @@
         <v>250.19</v>
       </c>
       <c r="AC5" t="n">
-        <v>2018.89</v>
+        <v>1535.02</v>
       </c>
       <c r="AD5" t="n">
-        <v>111249.72</v>
+        <v>88825.74000000001</v>
       </c>
       <c r="AE5" t="n">
         <v>266.99</v>
@@ -1033,114 +1017,114 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.51</v>
+        <v>0.74</v>
       </c>
       <c r="C6" t="n">
-        <v>1.03</v>
+        <v>1.48</v>
       </c>
       <c r="D6" t="n">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>1.06</v>
+        <v>1.54</v>
       </c>
       <c r="G6" t="n">
-        <v>3.42</v>
+        <v>4.95</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>5.42</v>
       </c>
       <c r="I6" t="n">
-        <v>5.21</v>
+        <v>7.54</v>
       </c>
       <c r="J6" t="n">
-        <v>30.95</v>
+        <v>43.04</v>
       </c>
       <c r="K6" t="n">
-        <v>10.75</v>
+        <v>15.56</v>
       </c>
       <c r="L6" t="n">
-        <v>6.85</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>4.64</v>
+        <v>6.72</v>
       </c>
       <c r="N6" t="n">
-        <v>5.43</v>
+        <v>7.85</v>
       </c>
       <c r="O6" t="n">
-        <v>5.95</v>
+        <v>8.48</v>
       </c>
       <c r="P6" t="n">
-        <v>0.43</v>
+        <v>0.63</v>
       </c>
       <c r="Q6" t="n">
         <v>27.95</v>
       </c>
       <c r="R6" t="n">
-        <v>4.54</v>
+        <v>6.57</v>
       </c>
       <c r="S6" t="n">
-        <v>24.34</v>
+        <v>34.77</v>
       </c>
       <c r="T6" t="n">
-        <v>1.39</v>
+        <v>2.01</v>
       </c>
       <c r="U6" t="n">
-        <v>1.93</v>
+        <v>2.8</v>
       </c>
       <c r="V6" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>32.12</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AH6" t="n">
         <v>0.33</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X6" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.23</v>
       </c>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="n">
-        <v>2.54</v>
+        <v>3.67</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.77</v>
+        <v>1.11</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.58</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="7">
@@ -1172,13 +1156,13 @@
         <v>311.06</v>
       </c>
       <c r="J7" t="n">
-        <v>273.49</v>
+        <v>269.89</v>
       </c>
       <c r="K7" t="n">
         <v>288.69</v>
       </c>
       <c r="L7" t="n">
-        <v>294.83</v>
+        <v>296.46</v>
       </c>
       <c r="M7" t="n">
         <v>304.71</v>
@@ -1187,7 +1171,7 @@
         <v>301.61</v>
       </c>
       <c r="O7" t="n">
-        <v>309.11</v>
+        <v>308.57</v>
       </c>
       <c r="P7" t="n">
         <v>433.87</v>
@@ -1199,7 +1183,7 @@
         <v>330.38</v>
       </c>
       <c r="S7" t="n">
-        <v>279.17</v>
+        <v>280.31</v>
       </c>
       <c r="T7" t="n">
         <v>231.53</v>
@@ -1217,7 +1201,7 @@
         <v>345.18</v>
       </c>
       <c r="Y7" t="n">
-        <v>298.83</v>
+        <v>303.26</v>
       </c>
       <c r="Z7" t="n">
         <v>333.74</v>
@@ -1229,10 +1213,10 @@
         <v>250.19</v>
       </c>
       <c r="AC7" t="n">
-        <v>336.48</v>
+        <v>307</v>
       </c>
       <c r="AD7" t="n">
-        <v>277.43</v>
+        <v>283.79</v>
       </c>
       <c r="AE7" t="n">
         <v>266.99</v>
@@ -1418,47 +1402,6 @@
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
